--- a/tests/test-data/SUS-example-generator.xlsx
+++ b/tests/test-data/SUS-example-generator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29532\Desktop\Regensburg\computer\multimedia\mme-sose24-statistics\tests\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A5595A-FE68-4978-B3D1-97237BDDE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D228969F-F70C-4F3C-A3C7-B5DAD623A672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -450,23 +450,24 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <f ca="1">15+INT(IF(C2="F", RAND()*20+RAND()*10, RAND()*30+RAND()*20))</f>
+        <v>45</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">IF(INT(RAND()*2)=1, "M", "F")</f>
-        <v>F</v>
+        <f ca="1">IF(INT(RAND()*2+0.2)=1, "M", "F")</f>
+        <v>M</v>
       </c>
       <c r="D2">
         <f ca="1">MAX(MIN(INT(RAND()*4 + 5 - $B2/15 - IF($C2="F", 0.7, 0)), 5), 1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B2/15 + IF($C2="F", 0.7, 0) - 0.8), 5), 1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:J2" ca="1" si="0">MAX(MIN(INT(RAND()*4 + 5 - $B2/15 - IF($C2="F", 0.7, 0)), 5), 1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B2/15 + IF($C2="F", 0.7, 0) - 0.8), 5), 1)</f>
@@ -474,7 +475,7 @@
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B2/15 + IF($C2="F", 0.7, 0) - 0.8), 5), 1)</f>
@@ -482,7 +483,7 @@
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B2/15 + IF($C2="F", 0.7, 0) - 0.8), 5), 1)</f>
@@ -490,11 +491,11 @@
       </c>
       <c r="L2">
         <f ca="1">MAX(MIN(INT(RAND()*4 + 5 - $B2/15 - IF($C2="F", 0.7, 0)), 5), 1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B2/15 + IF($C2="F", 0.7, 0) - 0.8), 5), 1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -502,51 +503,52 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="1">15+INT(IF(C3="F", RAND()*20+RAND()*10, RAND()*30+RAND()*20))</f>
         <v>41</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C41" ca="1" si="1">IF(INT(RAND()*2)=1, "M", "F")</f>
+        <f t="shared" ref="C3:C66" ca="1" si="2">IF(INT(RAND()*2+0.2)=1, "M", "F")</f>
         <v>M</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:J41" ca="1" si="2">MAX(MIN(INT(RAND()*4 + 5 - $B3/15 - IF($C3="F", 0.5, 0)), 5), 1)</f>
-        <v>4</v>
+        <f t="shared" ref="D3:J43" ca="1" si="3">MAX(MIN(INT(RAND()*4 + 5 - $B3/15 - IF($C3="F", 0.5, 0)), 5), 1)</f>
+        <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E40" ca="1" si="3">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
-        <v>2</v>
+        <f t="shared" ref="E3:E39" ca="1" si="4">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" ca="1" si="4">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
-        <v>3</v>
+        <f t="shared" ref="G3:G66" ca="1" si="5">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I41" ca="1" si="5">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <f ca="1">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
         <v>3</v>
       </c>
       <c r="J3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K41" ca="1" si="6">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <f t="shared" ref="K3:K66" ca="1" si="6">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
         <v>2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L41" ca="1" si="7">MAX(MIN(INT(RAND()*4 + 5 - $B3/15 - IF($C3="F", 0.5, 0)), 5), 1)</f>
-        <v>2</v>
+        <f t="shared" ref="L3:L66" ca="1" si="7">MAX(MIN(INT(RAND()*4 + 5 - $B3/15 - IF($C3="F", 0.5, 0)), 5), 1)</f>
+        <v>5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M41" ca="1" si="8">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
-        <v>3</v>
+        <f t="shared" ref="M3:M66" ca="1" si="8">MAX(MIN(INT(RAND()*2 + $B3/15 + IF($C3="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -554,43 +556,44 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="I4">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="I3:I66" ca="1" si="9">MAX(MIN(INT(RAND()*2 + $B4/15 + IF($C4="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>3</v>
       </c>
       <c r="J4">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="7"/>
@@ -598,7 +601,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -606,51 +609,52 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -658,51 +662,52 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -710,39 +715,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
@@ -750,11 +756,11 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -762,51 +768,52 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -814,39 +821,40 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
@@ -858,7 +866,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -866,51 +874,52 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -918,43 +927,44 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I11">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
@@ -970,51 +980,52 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="I12">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1022,47 +1033,48 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="J13">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
@@ -1074,47 +1086,48 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
@@ -1126,38 +1139,39 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="K15">
@@ -1170,7 +1184,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1178,39 +1192,40 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
@@ -1218,7 +1233,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
@@ -1230,47 +1245,48 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
@@ -1282,43 +1298,44 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I18">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
@@ -1326,7 +1343,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1334,43 +1351,44 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="I19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
@@ -1386,39 +1404,40 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="I20">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
       <c r="J20">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
@@ -1426,11 +1445,11 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1438,43 +1457,44 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I21">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="J21">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
@@ -1490,39 +1510,40 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="I22">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
@@ -1530,11 +1551,11 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1542,51 +1563,52 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="I23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1594,51 +1616,52 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>M</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I24">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="J24">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1646,39 +1669,40 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>45</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="I25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
@@ -1686,7 +1710,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
@@ -1698,51 +1722,52 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:J26" ca="1" si="9">MAX(MIN(INT(RAND()*4 + 5 - $B26/15 - IF($C26="F", 0.5, 0)), 5), 1)</f>
-        <v>1</v>
+        <f t="shared" ref="D26:J26" ca="1" si="10">MAX(MIN(INT(RAND()*4 + 5 - $B26/15 - IF($C26="F", 0.5, 0)), 5), 1)</f>
+        <v>5</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
       </c>
       <c r="I26">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="J26">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1750,14 +1775,15 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="E27">
@@ -1765,23 +1791,23 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I27">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="K27">
@@ -1790,7 +1816,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
@@ -1802,39 +1828,40 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I28">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
@@ -1842,11 +1869,11 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1854,38 +1881,39 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="I29">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="K29">
@@ -1894,7 +1922,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
@@ -1906,51 +1934,52 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>49</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
       <c r="J30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1958,38 +1987,39 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>36</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="G31">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B31/15 + IF($C31="F", 0.7, 0) - 0.8), 5), 1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="I31">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J31">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="K31">
@@ -1998,7 +2028,7 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
@@ -2010,51 +2040,52 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="I32">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J32">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2062,43 +2093,44 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="I33">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="J33">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="7"/>
@@ -2106,7 +2138,7 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2114,14 +2146,15 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="E34">
@@ -2129,23 +2162,23 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="I34">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J34">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="K34">
@@ -2158,7 +2191,7 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2166,51 +2199,52 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:J41" ca="1" si="10">MAX(MIN(INT(RAND()*4 + 5 - $B35/15 - IF($C35="F", 0.5, 0)), 5), 1)</f>
-        <v>4</v>
+        <f t="shared" ref="F35:J41" ca="1" si="11">MAX(MIN(INT(RAND()*4 + 5 - $B35/15 - IF($C35="F", 0.5, 0)), 5), 1)</f>
+        <v>2</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4</v>
       </c>
       <c r="I35">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J35">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2218,47 +2252,48 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
       </c>
       <c r="I36">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J36">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="8"/>
@@ -2270,43 +2305,44 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>46</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="I37">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
       <c r="J37">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="7"/>
@@ -2322,51 +2358,52 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="I38">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2374,39 +2411,40 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>F</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
       </c>
       <c r="I39">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J39">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
@@ -2418,7 +2456,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2426,47 +2464,48 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>F</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E40">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B40/15 + IF($C40="F", 0.7, 0) - 0.8), 5), 1)</f>
         <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="I40">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="8"/>
@@ -2478,55 +2517,3237 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>M</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="E41">
         <f ca="1">MAX(MIN(INT(RAND()*2 + $B41/15 + IF($C41="F", 0.7, 0) - 0.8), 5), 1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
       </c>
       <c r="I41">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
       <c r="J41">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D73" ca="1" si="12">MAX(MIN(INT(RAND()*4 + 5 - $B42/15 - IF($C42="F", 0.7, 0)), 5), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:E101" ca="1" si="13">MAX(MIN(INT(RAND()*2 + $B42/15 + IF($C42="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:J101" ca="1" si="14">MAX(MIN(INT(RAND()*4 + 5 - $B42/15 - IF($C42="F", 0.7, 0)), 5), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L73" ca="1" si="15">MAX(MIN(INT(RAND()*4 + 5 - $B42/15 - IF($C42="F", 0.7, 0)), 5), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:J101" ca="1" si="16">MAX(MIN(INT(RAND()*4 + 5 - $B44/15 - IF($C44="F", 0.5, 0)), 5), 1)</f>
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>M</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B101" ca="1" si="17">15+INT(IF(C67="F", RAND()*20+RAND()*10, RAND()*30+RAND()*20))</f>
+        <v>48</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C101" ca="1" si="18">IF(INT(RAND()*2+0.2)=1, "M", "F")</f>
+        <v>M</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G101" ca="1" si="19">MAX(MIN(INT(RAND()*2 + $B67/15 + IF($C67="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I101" ca="1" si="20">MAX(MIN(INT(RAND()*2 + $B67/15 + IF($C67="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K101" ca="1" si="21">MAX(MIN(INT(RAND()*2 + $B67/15 + IF($C67="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L101" ca="1" si="22">MAX(MIN(INT(RAND()*4 + 5 - $B67/15 - IF($C67="F", 0.5, 0)), 5), 1)</f>
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M101" ca="1" si="23">MAX(MIN(INT(RAND()*2 + $B67/15 + IF($C67="F", 0.7, 0) - 0.8), 5), 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ca="1" si="23"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="17"/>
+        <v>42</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:D101" ca="1" si="24">MAX(MIN(INT(RAND()*4 + 5 - $B82/15 - IF($C82="F", 0.7, 0)), 5), 1)</f>
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ref="L82:L101" ca="1" si="25">MAX(MIN(INT(RAND()*4 + 5 - $B82/15 - IF($C82="F", 0.7, 0)), 5), 1)</f>
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="17"/>
+        <v>44</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="17"/>
+        <v>42</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="17"/>
+        <v>41</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>F</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>M</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ca="1" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>